--- a/excel/Skill_技能表.xlsx
+++ b/excel/Skill_技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,32 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0 为无前摇动作
-1 为有前摇动作
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -61,12 +37,6 @@
   </si>
   <si>
     <t>技能描述</t>
-  </si>
-  <si>
-    <t>是否有前摇动作</t>
-  </si>
-  <si>
-    <t>施放特效</t>
   </si>
   <si>
     <t>弹道特效</t>
@@ -85,12 +55,6 @@
   </si>
   <si>
     <t>describe</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>cast</t>
   </si>
   <si>
     <t>ballistic</t>
@@ -172,7 +136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,11 +294,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1151,24 +1110,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1187,272 +1145,214 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1460,7 +1360,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
